--- a/xlsx/FR/region_FR.xlsx
+++ b/xlsx/FR/region_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sud-Ouest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sud-Est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord-Ouest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord-Est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre</t>
   </si>
 </sst>
 </file>
@@ -374,67 +374,53 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.126231205683486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.252958053423973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.19488494659923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.217032802082247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.198003605734041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.0108893864770234</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/region_FR.xlsx
+++ b/xlsx/FR/region_FR.xlsx
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.126231205683486</v>
+        <v>0.134665978081737</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252958053423973</v>
+        <v>0.234340077217905</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19488494659923</v>
+        <v>0.189550503026173</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.217032802082247</v>
+        <v>0.225954278491998</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.198003605734041</v>
+        <v>0.213361787320201</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0108893864770234</v>
+        <v>0.00212737586198554</v>
       </c>
     </row>
   </sheetData>
